--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\RecibosNomina\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\RecibosdeNomina\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE13C82-88A2-4C4F-A2F1-2BC54E43D1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -180,12 +181,21 @@
   </si>
   <si>
     <t>vBiKyO7dAwrg_BZo-hepo4Lt</t>
+  </si>
+  <si>
+    <t>PathFolder</t>
+  </si>
+  <si>
+    <t>C:\Users\Beecker\Documents\UiPath\RecibosNomina\Data\Output\2da de febrero</t>
+  </si>
+  <si>
+    <t>Locación de la carpeta donde se encuentran los archivos PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -525,17 +535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
     <col min="3" max="3" width="68.5703125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -616,7 +626,17 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1606,7 +1626,7 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1614,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2826,7 +2846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\RecibosdeNomina\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\RecibosNomina\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE13C82-88A2-4C4F-A2F1-2BC54E43D1CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -190,12 +189,42 @@
   </si>
   <si>
     <t>Locación de la carpeta donde se encuentran los archivos PDF</t>
+  </si>
+  <si>
+    <t>BeeckerCorreo</t>
+  </si>
+  <si>
+    <t>BeeckerPass</t>
+  </si>
+  <si>
+    <t>TalentoCorreo</t>
+  </si>
+  <si>
+    <t>TalentoPass</t>
+  </si>
+  <si>
+    <t>isvi.acuna@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Correo donde se enviaran los recibos de Beeckerco</t>
+  </si>
+  <si>
+    <t>Darkness_270</t>
+  </si>
+  <si>
+    <t>Contraseña del Correo de Beeckerco</t>
+  </si>
+  <si>
+    <t>Correo donde se enviaran los recibos de Talento IT</t>
+  </si>
+  <si>
+    <t>Contraseña del Correo de Talento IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -535,11 +564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -638,27 +667,67 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1626,15 +1695,17 @@
     <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2846,7 +2917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,24 @@
   </si>
   <si>
     <t>Contraseña del Correo de Talento IT</t>
+  </si>
+  <si>
+    <t>CcMail</t>
+  </si>
+  <si>
+    <t>BccMail</t>
+  </si>
+  <si>
+    <t>Correo asignado en CC del Mail al enviar los recibos.</t>
+  </si>
+  <si>
+    <t>Correo asignado en BCC del Mail al enviar los recibos.</t>
+  </si>
+  <si>
+    <t>uriel.martinez@beeckerco.com</t>
+  </si>
+  <si>
+    <t>hector.santiago@beeckerco.com</t>
   </si>
 </sst>
 </file>
@@ -568,7 +586,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -715,9 +733,29 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1698,9 +1736,11 @@
     <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/"/>
     <hyperlink ref="B12" r:id="rId2"/>
     <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B20" r:id="rId4"/>
+    <hyperlink ref="B22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -185,12 +185,6 @@
     <t>PathFolder</t>
   </si>
   <si>
-    <t>C:\Users\Beecker\Documents\UiPath\RecibosNomina\Data\Output\2da de febrero</t>
-  </si>
-  <si>
-    <t>Locación de la carpeta donde se encuentran los archivos PDF</t>
-  </si>
-  <si>
     <t>BeeckerCorreo</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>hector.santiago@beeckerco.com</t>
+  </si>
+  <si>
+    <t>Data\Input\Recibos de nomina NOI 1er Qna de Febrero 2020.pdf</t>
+  </si>
+  <si>
+    <t>Locación del archivo donde se encuentran los archivos PDF</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -678,82 +678,82 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -197,15 +197,9 @@
     <t>TalentoPass</t>
   </si>
   <si>
-    <t>isvi.acuna@beeckerco.com</t>
-  </si>
-  <si>
     <t>Correo donde se enviaran los recibos de Beeckerco</t>
   </si>
   <si>
-    <t>Darkness_270</t>
-  </si>
-  <si>
     <t>Contraseña del Correo de Beeckerco</t>
   </si>
   <si>
@@ -225,12 +219,6 @@
   </si>
   <si>
     <t>Correo asignado en BCC del Mail al enviar los recibos.</t>
-  </si>
-  <si>
-    <t>uriel.martinez@beeckerco.com</t>
-  </si>
-  <si>
-    <t>hector.santiago@beeckerco.com</t>
   </si>
   <si>
     <t>Data\Input\Recibos de nomina NOI 1er Qna de Febrero 2020.pdf</t>
@@ -585,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -678,10 +666,10 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -689,11 +677,9 @@
       <c r="A12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -701,11 +687,8 @@
       <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
@@ -713,11 +696,9 @@
       <c r="A16" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
@@ -725,35 +706,28 @@
       <c r="A18" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s">
         <v>65</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1734,13 +1708,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="http://5617097534-o74i55qsjqod97n5es3jrlprcbvjg5js.apps.googleusercontent.com/"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B20" r:id="rId4"/>
-    <hyperlink ref="B22" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
